--- a/data-raw/aafraction_lus.xlsx
+++ b/data-raw/aafraction_lus.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Public Work UNRESTRICTED\Tasks\aafractions.ncc\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Public Work UNRESTRICTED\Tasks\aafractions.ncc\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5A24AD99-9FA9-48AB-A448-BE29DD0FCA3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="7" r:id="rId1"/>
@@ -30,7 +31,7 @@
     <definedName name="_ftnref1" localSheetId="1">aaf_2017_phe!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="0">Tables!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -263,9 +264,6 @@
   </si>
   <si>
     <t>Unintentional injuries</t>
-  </si>
-  <si>
-    <t>§</t>
   </si>
   <si>
     <t>Intentional injuries</t>
@@ -784,9 +782,6 @@
     <t>V01, V090, V091, V099, V100-V109, V110-V119, V120-122, V130-132, V140-V142,V150-V159, V160-V169, V170-V179, V180-V189, V191-V193, V20-V28: 0.1-0.2; V290-V293, V30-V38: 0.1-0.2; V390-V393, V40-V48: 0.1-0.2; V490-V493, V50-V58: 0.1-0.2;V590-V593, V60-V68: 0.1-0.2; V690-V693, V70-V78: 0.1-0.2; V790-V793, V800, V801, V806-V809, V810, V812-V819, V820, V822-V829, V834-V839, V844-V849, V854-V859, V864-V869, V879, V88, V890, V891, V893-V899,  V90-V94, V95-V97, V98-V99, W20-W52, W75-W84, W85-W99, X10-X19, X20-X29, X30-X33, X50-X57, X58, X59,Y40-Y84 Y85, Y86, Y88, Y89</t>
   </si>
   <si>
-    <t>§§</t>
-  </si>
-  <si>
     <t>V12-V14 (.3 -.9), V19.4-V19.6, V19.9, V20-V28 (.3 -.9), V29-V79 (.4 -.9), V80.3-V80.5, V81.1, V82.1, V82.9, V83-V86 (.0 -.3), V87.0-V87.9, V89.2, V89.3, V89.9</t>
   </si>
   <si>
@@ -888,11 +883,17 @@
   <si>
     <t>aaf_2007_ni39</t>
   </si>
+  <si>
+    <t>[S]</t>
+  </si>
+  <si>
+    <t>[SS]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1251,861 +1252,10 @@
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="171">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2926,6 +2076,813 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4404,6 +4361,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -4421,6 +4379,49 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4887,7 +4888,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="NCC White Table" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="NCC White Table" pivot="0" count="7">
+    <tableStyle name="NCC White Table" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="170"/>
       <tableStyleElement type="headerRow" dxfId="169"/>
       <tableStyleElement type="totalRow" dxfId="168"/>
@@ -4917,195 +4918,195 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A4:D8" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
-  <autoFilter ref="A4:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table18" displayName="Table18" ref="A4:D8" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+  <autoFilter ref="A4:D8" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Table" dataDxfId="161" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="Source" dataDxfId="160" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="Location" dataDxfId="159" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="URL" dataDxfId="158" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Table" dataDxfId="161" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Source" dataDxfId="160" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Location" dataDxfId="159" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="URL" dataDxfId="158" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="NCC White Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="tbl_aaf_2017_phe" displayName="tbl_aaf_2017_phe" ref="A6:Y71" headerRowDxfId="157" dataDxfId="156">
-  <autoFilter ref="A6:Y71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tbl_aaf_2017_phe" displayName="tbl_aaf_2017_phe" ref="A6:Y71" headerRowDxfId="157" dataDxfId="156">
+  <autoFilter ref="A6:Y71" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <sortState ref="A7:Y71">
     <sortCondition ref="H7:H71"/>
     <sortCondition ref="I7:I71"/>
     <sortCondition descending="1" ref="G7:G71"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="24" name="Version" dataDxfId="155" totalsRowDxfId="154">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Version" dataDxfId="155" totalsRowDxfId="154">
       <calculatedColumnFormula>"aaf_2017_phe"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="cat1" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="2" name="cat2" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="3" name="desc" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="cat1" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="cat2" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="desc" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
       <totalsRowFormula>#REF!&amp;#REF!&amp;#REF!&amp;#REF!&amp;#REF!</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="attribution" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="5" name="cause" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="25" name="analysis_type" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="attribution" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="cause" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="analysis_type" dataDxfId="143" totalsRowDxfId="142">
       <calculatedColumnFormula>"all"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="sortkey" dataDxfId="29" totalsRowDxfId="141">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="sortkey" dataDxfId="141" totalsRowDxfId="140">
       <calculatedColumnFormula>IF(AND(C7 = C6, LEN(I7) &gt; 0), H6, H6 + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="codes" dataDxfId="27" totalsRowDxfId="140"/>
-    <tableColumn id="6" name="00-15 Yrs:M" dataDxfId="28" totalsRowDxfId="139"/>
-    <tableColumn id="7" name="00-15 Yrs:F" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="8" name="16-24 Yrs:M" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="9" name="16-24 Yrs:F" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="10" name="25-34 Yrs:M" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="11" name="25-34 Yrs:F" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="12" name="35-44 Yrs:M" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="13" name="35-44 Yrs:F" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="14" name="45-54 Yrs:M" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="15" name="45-54 Yrs:F" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="16" name="55-64 Yrs:M" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="17" name="55-64 Yrs:F" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="18" name="65-74 Yrs:M" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="19" name="65-74 Yrs:F" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="20" name="75+ Yrs:M" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="21" name="75+ Yrs:F" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="codes" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="00-15 Yrs:M" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="00-15 Yrs:F" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="16-24 Yrs:M" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="16-24 Yrs:F" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="25-34 Yrs:M" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="25-34 Yrs:F" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="35-44 Yrs:M" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="35-44 Yrs:F" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="45-54 Yrs:M" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="45-54 Yrs:F" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="55-64 Yrs:M" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="55-64 Yrs:F" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="65-74 Yrs:M" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="65-74 Yrs:F" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="75+ Yrs:M" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="75+ Yrs:F" dataDxfId="107" totalsRowDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="NCC White Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="tbl_aaf_2014_ljucph" displayName="tbl_aaf_2014_ljucph" ref="A6:Y71" headerRowDxfId="108" dataDxfId="107">
-  <autoFilter ref="A6:Y71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tbl_aaf_2014_ljucph" displayName="tbl_aaf_2014_ljucph" ref="A6:Y71" headerRowDxfId="105" dataDxfId="104">
+  <autoFilter ref="A6:Y71" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <sortState ref="A7:Y71">
     <sortCondition ref="H7:H71"/>
     <sortCondition ref="I7:I71"/>
     <sortCondition descending="1" ref="G7:G71"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="24" name="Version" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="Version" dataDxfId="103" totalsRowDxfId="102">
       <calculatedColumnFormula>"aaf_2014_ljucph"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="cat1" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="2" name="cat2" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="3" name="desc" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="cat1" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="cat2" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="desc" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>#REF!&amp;#REF!&amp;#REF!&amp;#REF!&amp;#REF!</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="attribution" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="5" name="cause" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="25" name="analysis_type" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="attribution" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="cause" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="analysis_type" dataDxfId="91" totalsRowDxfId="90">
       <calculatedColumnFormula>"all"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="sortkey" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="22" name="codes" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="6" name="00-15 Yrs:M" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="7" name="00-15 Yrs:F" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="8" name="16-24 Yrs:M" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="9" name="16-24 Yrs:F" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="10" name="25-34 Yrs:M" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="11" name="25-34 Yrs:F" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="12" name="35-44 Yrs:M" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="13" name="35-44 Yrs:F" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="14" name="45-54 Yrs:M" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="15" name="45-54 Yrs:F" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="16" name="55-64 Yrs:M" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="17" name="55-64 Yrs:F" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="18" name="65-74 Yrs:M" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="19" name="65-74 Yrs:F" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="20" name="75+ Yrs:M" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="21" name="75+ Yrs:F" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="sortkey" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="codes" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="00-15 Yrs:M" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="00-15 Yrs:F" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="16-24 Yrs:M" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="16-24 Yrs:F" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="25-34 Yrs:M" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="25-34 Yrs:F" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="35-44 Yrs:M" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="35-44 Yrs:F" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="45-54 Yrs:M" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="45-54 Yrs:F" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="55-64 Yrs:M" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="55-64 Yrs:F" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="65-74 Yrs:M" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="65-74 Yrs:F" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="75+ Yrs:M" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="75+ Yrs:F" dataDxfId="55" totalsRowDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="NCC White Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="tbl_aaf_2008_ljucph" displayName="tbl_aaf_2008_ljucph" ref="A6:Y58" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A6:Y58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tbl_aaf_2008_ljucph" displayName="tbl_aaf_2008_ljucph" ref="A6:Y58" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A6:Y58" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <sortState ref="A7:Y58">
     <sortCondition ref="H7:H58"/>
     <sortCondition ref="I7:I58"/>
     <sortCondition descending="1" ref="G7:G58"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" name="Version" dataDxfId="24" dataCellStyle="Normal 3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Version" dataDxfId="51" dataCellStyle="Normal 3">
       <calculatedColumnFormula>"aaf_2008_ljucph"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="cat1" dataDxfId="23" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="cat2" dataDxfId="22" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="desc" dataDxfId="21"/>
-    <tableColumn id="5" name="attribution" dataDxfId="20"/>
-    <tableColumn id="6" name="cause" dataDxfId="19"/>
-    <tableColumn id="25" name="analysis_type" dataDxfId="18">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="cat1" dataDxfId="50" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="cat2" dataDxfId="49" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="desc" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="attribution" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="cause" dataDxfId="46"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="analysis_type" dataDxfId="45">
       <calculatedColumnFormula>"all"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="sortkey" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="sortkey" dataDxfId="44">
       <calculatedColumnFormula>IF(AND(C7 = C6, LEN(I7) &gt; 0), H6, H6 + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="codes" dataDxfId="16"/>
-    <tableColumn id="9" name="00-15 Yrs:M" dataDxfId="15"/>
-    <tableColumn id="10" name="00-15 Yrs:F" dataDxfId="14"/>
-    <tableColumn id="11" name="16-24 Yrs:M" dataDxfId="13"/>
-    <tableColumn id="12" name="16-24 Yrs:F" dataDxfId="12"/>
-    <tableColumn id="13" name="25-34 Yrs:M" dataDxfId="11"/>
-    <tableColumn id="14" name="25-34 Yrs:F" dataDxfId="10"/>
-    <tableColumn id="15" name="35-44 Yrs:M" dataDxfId="9"/>
-    <tableColumn id="16" name="35-44 Yrs:F" dataDxfId="8"/>
-    <tableColumn id="17" name="45-54 Yrs:M" dataDxfId="7"/>
-    <tableColumn id="18" name="45-54 Yrs:F" dataDxfId="6"/>
-    <tableColumn id="19" name="55-64 Yrs:M" dataDxfId="5"/>
-    <tableColumn id="20" name="55-64 Yrs:F" dataDxfId="4"/>
-    <tableColumn id="21" name="65-74 Yrs:M" dataDxfId="3"/>
-    <tableColumn id="22" name="65-74 Yrs:F" dataDxfId="2"/>
-    <tableColumn id="23" name="75+ Yrs:M" dataDxfId="1"/>
-    <tableColumn id="24" name="75+ Yrs:F" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="codes" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="00-15 Yrs:M" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="00-15 Yrs:F" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="16-24 Yrs:M" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="16-24 Yrs:F" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="25-34 Yrs:M" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="25-34 Yrs:F" dataDxfId="37"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="35-44 Yrs:M" dataDxfId="36"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="35-44 Yrs:F" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="45-54 Yrs:M" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="45-54 Yrs:F" dataDxfId="33"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="55-64 Yrs:M" dataDxfId="32"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="55-64 Yrs:F" dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="65-74 Yrs:M" dataDxfId="30"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="65-74 Yrs:F" dataDxfId="29"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="75+ Yrs:M" dataDxfId="28"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="75+ Yrs:F" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="NCC White Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="tbl_aaf_2007_ni39" displayName="tbl_aaf_2007_ni39" ref="A6:Y45" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A6:Y45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tbl_aaf_2007_ni39" displayName="tbl_aaf_2007_ni39" ref="A6:Y45" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A6:Y45" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <sortState ref="A7:Y45">
     <sortCondition ref="H7:H45"/>
     <sortCondition ref="I7:I45"/>
     <sortCondition descending="1" ref="G7:G45"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" name="Version" dataDxfId="54" dataCellStyle="Normal 3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Version" dataDxfId="24" dataCellStyle="Normal 3">
       <calculatedColumnFormula>"aaf_2007_ni39"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="cat1" dataDxfId="53" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="cat2" dataDxfId="52" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="desc" dataDxfId="51"/>
-    <tableColumn id="5" name="attribution" dataDxfId="50"/>
-    <tableColumn id="6" name="cause" dataDxfId="49"/>
-    <tableColumn id="25" name="analysis_type" dataDxfId="48">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="cat1" dataDxfId="23" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="cat2" dataDxfId="22" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="desc" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="attribution" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="cause" dataDxfId="19"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="analysis_type" dataDxfId="18">
       <calculatedColumnFormula>"all"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="sortkey" dataDxfId="47">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="sortkey" dataDxfId="17">
       <calculatedColumnFormula>IF(AND(C7 = C6, LEN(I7) &gt; 0), H6, H6 + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="codes" dataDxfId="46"/>
-    <tableColumn id="9" name="00-15 Yrs:M" dataDxfId="45"/>
-    <tableColumn id="10" name="00-15 Yrs:F" dataDxfId="44"/>
-    <tableColumn id="11" name="16-24 Yrs:M" dataDxfId="43"/>
-    <tableColumn id="12" name="16-24 Yrs:F" dataDxfId="42"/>
-    <tableColumn id="13" name="25-34 Yrs:M" dataDxfId="41"/>
-    <tableColumn id="14" name="25-34 Yrs:F" dataDxfId="40"/>
-    <tableColumn id="15" name="35-44 Yrs:M" dataDxfId="39"/>
-    <tableColumn id="16" name="35-44 Yrs:F" dataDxfId="38"/>
-    <tableColumn id="17" name="45-54 Yrs:M" dataDxfId="37"/>
-    <tableColumn id="18" name="45-54 Yrs:F" dataDxfId="36"/>
-    <tableColumn id="19" name="55-64 Yrs:M" dataDxfId="35"/>
-    <tableColumn id="20" name="55-64 Yrs:F" dataDxfId="34"/>
-    <tableColumn id="21" name="65-74 Yrs:M" dataDxfId="33"/>
-    <tableColumn id="22" name="65-74 Yrs:F" dataDxfId="32"/>
-    <tableColumn id="23" name="75+ Yrs:M" dataDxfId="31"/>
-    <tableColumn id="24" name="75+ Yrs:F" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="codes" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="00-15 Yrs:M" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="00-15 Yrs:F" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="16-24 Yrs:M" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="16-24 Yrs:F" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="25-34 Yrs:M" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="25-34 Yrs:F" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="35-44 Yrs:M" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="35-44 Yrs:F" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="45-54 Yrs:M" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="45-54 Yrs:F" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="55-64 Yrs:M" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="55-64 Yrs:F" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="65-74 Yrs:M" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="65-74 Yrs:F" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="75+ Yrs:M" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="75+ Yrs:F" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="NCC White Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5397,10 +5398,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5412,7 +5413,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5420,7 +5421,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -5434,72 +5435,72 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5510,7 +5511,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5526,10 +5527,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -5541,10 +5542,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y193"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D71" sqref="D70:D71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5620,7 +5623,7 @@
     </row>
     <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="7"/>
@@ -5650,35 +5653,35 @@
     <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I4" s="12"/>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
@@ -5735,84 +5738,84 @@
     </row>
     <row r="6" spans="1:25" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="F6" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="94" t="s">
-        <v>95</v>
-      </c>
       <c r="G6" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" ref="A7:A38" si="0">"aaf_2017_phe"</f>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B7" s="41" t="s">
@@ -5822,12 +5825,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
       <c r="G7" s="41" t="str">
-        <f>"all"</f>
+        <f t="shared" ref="G7:G38" si="1">"all"</f>
         <v>all</v>
       </c>
       <c r="H7" s="61">
@@ -5887,7 +5890,7 @@
     </row>
     <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B8" s="47" t="s">
@@ -5897,12 +5900,12 @@
         <v>4</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H8" s="50">
@@ -5962,7 +5965,7 @@
     </row>
     <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -5972,12 +5975,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H9" s="50">
@@ -6037,7 +6040,7 @@
     </row>
     <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -6052,7 +6055,7 @@
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H10" s="50">
@@ -6112,7 +6115,7 @@
     </row>
     <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -6127,7 +6130,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H11" s="50">
@@ -6187,7 +6190,7 @@
     </row>
     <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -6202,7 +6205,7 @@
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="G12" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H12" s="50">
@@ -6262,7 +6265,7 @@
     </row>
     <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -6277,7 +6280,7 @@
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H13" s="50">
@@ -6337,7 +6340,7 @@
     </row>
     <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -6352,7 +6355,7 @@
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H14" s="50">
@@ -6412,7 +6415,7 @@
     </row>
     <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -6427,7 +6430,7 @@
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H15" s="50">
@@ -6487,7 +6490,7 @@
     </row>
     <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -6502,7 +6505,7 @@
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
       <c r="G16" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H16" s="50">
@@ -6562,7 +6565,7 @@
     </row>
     <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -6577,7 +6580,7 @@
       <c r="E17" s="49"/>
       <c r="F17" s="49"/>
       <c r="G17" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H17" s="50">
@@ -6637,7 +6640,7 @@
     </row>
     <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B18" s="47" t="s">
@@ -6652,7 +6655,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H18" s="50">
@@ -6712,7 +6715,7 @@
     </row>
     <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B19" s="47" t="s">
@@ -6727,7 +6730,7 @@
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H19" s="50">
@@ -6787,7 +6790,7 @@
     </row>
     <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -6802,7 +6805,7 @@
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H20" s="50">
@@ -6862,7 +6865,7 @@
     </row>
     <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -6877,7 +6880,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
       <c r="G21" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H21" s="50">
@@ -6937,7 +6940,7 @@
     </row>
     <row r="22" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B22" s="47" t="s">
@@ -6947,12 +6950,12 @@
         <v>4</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
       <c r="G22" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H22" s="50">
@@ -7012,7 +7015,7 @@
     </row>
     <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B23" s="47" t="s">
@@ -7022,12 +7025,12 @@
         <v>4</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
       <c r="G23" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H23" s="50">
@@ -7087,7 +7090,7 @@
     </row>
     <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B24" s="47" t="s">
@@ -7097,12 +7100,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
       <c r="G24" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H24" s="50">
@@ -7162,7 +7165,7 @@
     </row>
     <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B25" s="47" t="s">
@@ -7172,12 +7175,12 @@
         <v>4</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
       <c r="G25" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H25" s="50">
@@ -7237,7 +7240,7 @@
     </row>
     <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B26" s="53" t="s">
@@ -7247,12 +7250,12 @@
         <v>4</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
       <c r="G26" s="55" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H26" s="56">
@@ -7312,7 +7315,7 @@
     </row>
     <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B27" s="41" t="s">
@@ -7327,14 +7330,14 @@
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H27" s="44">
         <v>2</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J27" s="58">
         <v>0</v>
@@ -7387,7 +7390,7 @@
     </row>
     <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B28" s="47" t="s">
@@ -7402,14 +7405,14 @@
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
       <c r="G28" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H28" s="50">
         <v>2</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J28" s="59">
         <v>0</v>
@@ -7462,7 +7465,7 @@
     </row>
     <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B29" s="47" t="s">
@@ -7477,7 +7480,7 @@
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H29" s="50">
@@ -7537,7 +7540,7 @@
     </row>
     <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -7552,14 +7555,14 @@
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H30" s="50">
         <v>2</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J30" s="59">
         <v>0</v>
@@ -7612,7 +7615,7 @@
     </row>
     <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B31" s="47" t="s">
@@ -7627,7 +7630,7 @@
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H31" s="50">
@@ -7687,7 +7690,7 @@
     </row>
     <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B32" s="47" t="s">
@@ -7702,7 +7705,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
       <c r="G32" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H32" s="50">
@@ -7762,7 +7765,7 @@
     </row>
     <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B33" s="47" t="s">
@@ -7777,7 +7780,7 @@
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H33" s="50">
@@ -7837,7 +7840,7 @@
     </row>
     <row r="34" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B34" s="47" t="s">
@@ -7852,7 +7855,7 @@
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H34" s="50">
@@ -7912,7 +7915,7 @@
     </row>
     <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B35" s="47" t="s">
@@ -7927,14 +7930,14 @@
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
       <c r="G35" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H35" s="50">
         <v>2</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J35" s="59">
         <v>0</v>
@@ -7987,7 +7990,7 @@
     </row>
     <row r="36" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B36" s="47" t="s">
@@ -8002,7 +8005,7 @@
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
       <c r="G36" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H36" s="50">
@@ -8062,7 +8065,7 @@
     </row>
     <row r="37" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B37" s="47" t="s">
@@ -8077,7 +8080,7 @@
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
       <c r="G37" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H37" s="50">
@@ -8137,7 +8140,7 @@
     </row>
     <row r="38" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B38" s="47" t="s">
@@ -8152,7 +8155,7 @@
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
       <c r="G38" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H38" s="50">
@@ -8212,7 +8215,7 @@
     </row>
     <row r="39" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" ref="A39:A71" si="2">"aaf_2017_phe"</f>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B39" s="47" t="s">
@@ -8222,18 +8225,18 @@
         <v>56</v>
       </c>
       <c r="D39" s="85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E39" s="49"/>
       <c r="F39" s="49"/>
       <c r="G39" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H39" s="50">
         <v>2</v>
       </c>
       <c r="I39" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J39" s="59">
         <v>0</v>
@@ -8286,7 +8289,7 @@
     </row>
     <row r="40" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B40" s="47" t="s">
@@ -8296,18 +8299,18 @@
         <v>56</v>
       </c>
       <c r="D40" s="85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E40" s="49"/>
       <c r="F40" s="49"/>
       <c r="G40" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H40" s="50">
         <v>2</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J40" s="59">
         <v>0</v>
@@ -8360,7 +8363,7 @@
     </row>
     <row r="41" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B41" s="47" t="s">
@@ -8370,18 +8373,18 @@
         <v>56</v>
       </c>
       <c r="D41" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
       <c r="G41" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H41" s="50">
         <v>2</v>
       </c>
       <c r="I41" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J41" s="59">
         <v>0</v>
@@ -8434,7 +8437,7 @@
     </row>
     <row r="42" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B42" s="47" t="s">
@@ -8444,18 +8447,18 @@
         <v>56</v>
       </c>
       <c r="D42" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
       <c r="G42" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H42" s="50">
         <v>2</v>
       </c>
       <c r="I42" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J42" s="59">
         <v>0</v>
@@ -8508,7 +8511,7 @@
     </row>
     <row r="43" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B43" s="47" t="s">
@@ -8518,12 +8521,12 @@
         <v>56</v>
       </c>
       <c r="D43" s="85" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
       <c r="G43" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H43" s="50">
         <v>2</v>
@@ -8582,7 +8585,7 @@
     </row>
     <row r="44" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B44" s="47" t="s">
@@ -8592,12 +8595,12 @@
         <v>56</v>
       </c>
       <c r="D44" s="85" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
       <c r="G44" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H44" s="50">
         <v>2</v>
@@ -8656,7 +8659,7 @@
     </row>
     <row r="45" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B45" s="47" t="s">
@@ -8671,13 +8674,13 @@
       <c r="E45" s="49"/>
       <c r="F45" s="49"/>
       <c r="G45" s="49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H45" s="50">
         <v>2</v>
       </c>
       <c r="I45" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J45" s="59">
         <v>0</v>
@@ -8730,7 +8733,7 @@
     </row>
     <row r="46" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B46" s="47" t="s">
@@ -8740,18 +8743,18 @@
         <v>66</v>
       </c>
       <c r="D46" s="85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E46" s="49"/>
       <c r="F46" s="49"/>
       <c r="G46" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H46" s="50">
         <v>2</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J46" s="59">
         <v>0</v>
@@ -8804,7 +8807,7 @@
     </row>
     <row r="47" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B47" s="47" t="s">
@@ -8814,18 +8817,18 @@
         <v>66</v>
       </c>
       <c r="D47" s="85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="49"/>
       <c r="G47" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H47" s="50">
         <v>2</v>
       </c>
       <c r="I47" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J47" s="59">
         <v>0</v>
@@ -8878,7 +8881,7 @@
     </row>
     <row r="48" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B48" s="47" t="s">
@@ -8953,7 +8956,7 @@
     </row>
     <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B49" s="47" t="s">
@@ -8975,7 +8978,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J49" s="59">
         <v>0</v>
@@ -9028,7 +9031,7 @@
     </row>
     <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B50" s="47" t="s">
@@ -9103,7 +9106,7 @@
     </row>
     <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="52" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B51" s="53" t="s">
@@ -9125,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="I51" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J51" s="60">
         <v>0.05</v>
@@ -9178,7 +9181,7 @@
     </row>
     <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="40" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B52" s="41" t="s">
@@ -9188,18 +9191,18 @@
         <v>75</v>
       </c>
       <c r="D52" s="89" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H52" s="31">
         <v>3.1</v>
       </c>
       <c r="I52" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J52" s="58">
         <v>0</v>
@@ -9252,7 +9255,7 @@
     </row>
     <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B53" s="47" t="s">
@@ -9262,18 +9265,18 @@
         <v>75</v>
       </c>
       <c r="D53" s="85" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H53" s="29">
         <v>3.1</v>
       </c>
       <c r="I53" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J53" s="59">
         <v>0</v>
@@ -9326,7 +9329,7 @@
     </row>
     <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B54" s="47" t="s">
@@ -9336,18 +9339,18 @@
         <v>75</v>
       </c>
       <c r="D54" s="85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
       <c r="G54" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H54" s="29">
         <v>3.2</v>
       </c>
       <c r="I54" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J54" s="59">
         <v>0</v>
@@ -9400,7 +9403,7 @@
     </row>
     <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B55" s="47" t="s">
@@ -9410,18 +9413,18 @@
         <v>75</v>
       </c>
       <c r="D55" s="85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
       <c r="G55" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H55" s="29">
         <v>3.2</v>
       </c>
       <c r="I55" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J55" s="59">
         <v>0</v>
@@ -9474,7 +9477,7 @@
     </row>
     <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B56" s="47" t="s">
@@ -9484,18 +9487,18 @@
         <v>75</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
       <c r="G56" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H56" s="29">
         <v>3.3</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J56" s="59">
         <v>0</v>
@@ -9548,7 +9551,7 @@
     </row>
     <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B57" s="47" t="s">
@@ -9558,18 +9561,18 @@
         <v>75</v>
       </c>
       <c r="D57" s="85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
       <c r="G57" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H57" s="29">
         <v>3.3</v>
       </c>
       <c r="I57" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J57" s="59">
         <v>0</v>
@@ -9622,7 +9625,7 @@
     </row>
     <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B58" s="47" t="s">
@@ -9632,18 +9635,18 @@
         <v>75</v>
       </c>
       <c r="D58" s="85" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
       <c r="G58" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H58" s="29">
         <v>3.3</v>
       </c>
       <c r="I58" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J58" s="59">
         <v>0</v>
@@ -9696,7 +9699,7 @@
     </row>
     <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B59" s="47" t="s">
@@ -9706,18 +9709,18 @@
         <v>75</v>
       </c>
       <c r="D59" s="85" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
       <c r="G59" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H59" s="29">
         <v>3.3</v>
       </c>
       <c r="I59" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J59" s="59">
         <v>0</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B60" s="47" t="s">
@@ -9780,18 +9783,18 @@
         <v>75</v>
       </c>
       <c r="D60" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
       <c r="G60" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H60" s="29">
         <v>3.3</v>
       </c>
       <c r="I60" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J60" s="59">
         <v>0</v>
@@ -9844,7 +9847,7 @@
     </row>
     <row r="61" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B61" s="47" t="s">
@@ -9854,18 +9857,18 @@
         <v>75</v>
       </c>
       <c r="D61" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="49"/>
       <c r="G61" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H61" s="29">
         <v>3.3</v>
       </c>
       <c r="I61" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J61" s="59">
         <v>0</v>
@@ -9918,7 +9921,7 @@
     </row>
     <row r="62" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B62" s="47" t="s">
@@ -9928,18 +9931,18 @@
         <v>75</v>
       </c>
       <c r="D62" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
       <c r="G62" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H62" s="29">
         <v>3.3</v>
       </c>
       <c r="I62" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J62" s="59">
         <v>0</v>
@@ -9992,7 +9995,7 @@
     </row>
     <row r="63" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B63" s="47" t="s">
@@ -10002,18 +10005,18 @@
         <v>75</v>
       </c>
       <c r="D63" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
       <c r="G63" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H63" s="29">
         <v>3.3</v>
       </c>
       <c r="I63" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J63" s="59">
         <v>0</v>
@@ -10066,28 +10069,28 @@
     </row>
     <row r="64" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B64" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" s="85" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
       <c r="G64" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H64" s="50">
         <v>4</v>
       </c>
       <c r="I64" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J64" s="59">
         <v>0</v>
@@ -10140,28 +10143,28 @@
     </row>
     <row r="65" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B65" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="85" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
       <c r="G65" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H65" s="50">
         <v>4</v>
       </c>
       <c r="I65" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J65" s="59">
         <v>0</v>
@@ -10214,28 +10217,28 @@
     </row>
     <row r="66" spans="1:25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B66" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" s="85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H66" s="50">
         <v>4</v>
       </c>
       <c r="I66" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J66" s="59">
         <v>0</v>
@@ -10288,28 +10291,28 @@
     </row>
     <row r="67" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B67" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D67" s="85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E67" s="49"/>
       <c r="F67" s="49"/>
       <c r="G67" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H67" s="50">
         <v>4</v>
       </c>
       <c r="I67" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J67" s="59">
         <v>0</v>
@@ -10362,28 +10365,28 @@
     </row>
     <row r="68" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="46" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B68" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" s="85" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E68" s="49"/>
       <c r="F68" s="49"/>
       <c r="G68" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H68" s="50">
         <v>4</v>
       </c>
       <c r="I68" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J68" s="59">
         <v>0</v>
@@ -10436,28 +10439,28 @@
     </row>
     <row r="69" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="52" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B69" s="53" t="s">
         <v>74</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E69" s="55"/>
       <c r="F69" s="55"/>
       <c r="G69" s="55" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H69" s="56">
         <v>4</v>
       </c>
       <c r="I69" s="57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J69" s="60">
         <v>0</v>
@@ -10510,7 +10513,7 @@
     </row>
     <row r="70" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="40" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B70" s="47" t="s">
@@ -10520,7 +10523,7 @@
         <v>75</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -10532,7 +10535,7 @@
         <v>5</v>
       </c>
       <c r="I70" s="98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
@@ -10553,7 +10556,7 @@
     </row>
     <row r="71" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="52" t="str">
-        <f>"aaf_2017_phe"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2017_phe</v>
       </c>
       <c r="B71" s="47" t="s">
@@ -10563,7 +10566,7 @@
         <v>75</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -10575,7 +10578,7 @@
         <v>5</v>
       </c>
       <c r="I71" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J71" s="37"/>
       <c r="K71" s="37"/>
@@ -13408,10 +13411,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y193"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70:D71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13429,7 +13434,7 @@
   <sheetData>
     <row r="1" spans="1:25" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="7"/>
@@ -13487,7 +13492,7 @@
     </row>
     <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="7"/>
@@ -13517,35 +13522,35 @@
     <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I4" s="12"/>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
@@ -13602,84 +13607,84 @@
     </row>
     <row r="6" spans="1:25" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="F6" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="94" t="s">
-        <v>95</v>
-      </c>
       <c r="G6" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" ref="A7:A38" si="0">"aaf_2014_ljucph"</f>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B7" s="41" t="s">
@@ -13689,12 +13694,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
       <c r="G7" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" ref="G7:G38" si="1">"all"</f>
         <v>all</v>
       </c>
       <c r="H7" s="61">
@@ -13754,7 +13759,7 @@
     </row>
     <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B8" s="47" t="s">
@@ -13764,12 +13769,12 @@
         <v>4</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H8" s="50">
@@ -13829,7 +13834,7 @@
     </row>
     <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -13839,12 +13844,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H9" s="50">
@@ -13904,7 +13909,7 @@
     </row>
     <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -13919,7 +13924,7 @@
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H10" s="50">
@@ -13979,7 +13984,7 @@
     </row>
     <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -13994,7 +13999,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H11" s="50">
@@ -14054,7 +14059,7 @@
     </row>
     <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -14069,7 +14074,7 @@
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="G12" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H12" s="50">
@@ -14129,7 +14134,7 @@
     </row>
     <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -14144,7 +14149,7 @@
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H13" s="50">
@@ -14204,7 +14209,7 @@
     </row>
     <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -14219,7 +14224,7 @@
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H14" s="50">
@@ -14279,7 +14284,7 @@
     </row>
     <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -14294,7 +14299,7 @@
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H15" s="50">
@@ -14354,7 +14359,7 @@
     </row>
     <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -14369,7 +14374,7 @@
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
       <c r="G16" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H16" s="50">
@@ -14429,7 +14434,7 @@
     </row>
     <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -14444,7 +14449,7 @@
       <c r="E17" s="49"/>
       <c r="F17" s="49"/>
       <c r="G17" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H17" s="50">
@@ -14504,7 +14509,7 @@
     </row>
     <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B18" s="47" t="s">
@@ -14519,7 +14524,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H18" s="50">
@@ -14579,7 +14584,7 @@
     </row>
     <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B19" s="47" t="s">
@@ -14594,7 +14599,7 @@
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H19" s="50">
@@ -14654,7 +14659,7 @@
     </row>
     <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -14669,7 +14674,7 @@
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H20" s="50">
@@ -14729,7 +14734,7 @@
     </row>
     <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -14744,7 +14749,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
       <c r="G21" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H21" s="50">
@@ -14804,7 +14809,7 @@
     </row>
     <row r="22" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B22" s="47" t="s">
@@ -14814,12 +14819,12 @@
         <v>4</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
       <c r="G22" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H22" s="50">
@@ -14879,7 +14884,7 @@
     </row>
     <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B23" s="47" t="s">
@@ -14889,12 +14894,12 @@
         <v>4</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
       <c r="G23" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H23" s="50">
@@ -14954,7 +14959,7 @@
     </row>
     <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B24" s="47" t="s">
@@ -14964,12 +14969,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
       <c r="G24" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H24" s="50">
@@ -15029,7 +15034,7 @@
     </row>
     <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B25" s="47" t="s">
@@ -15039,12 +15044,12 @@
         <v>4</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
       <c r="G25" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H25" s="50">
@@ -15104,7 +15109,7 @@
     </row>
     <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B26" s="53" t="s">
@@ -15114,12 +15119,12 @@
         <v>4</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
       <c r="G26" s="55" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H26" s="56">
@@ -15179,7 +15184,7 @@
     </row>
     <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B27" s="41" t="s">
@@ -15194,14 +15199,14 @@
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H27" s="44">
         <v>2</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J27" s="58">
         <v>0</v>
@@ -15254,7 +15259,7 @@
     </row>
     <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B28" s="47" t="s">
@@ -15269,14 +15274,14 @@
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
       <c r="G28" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H28" s="50">
         <v>2</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J28" s="59">
         <v>0</v>
@@ -15329,7 +15334,7 @@
     </row>
     <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B29" s="47" t="s">
@@ -15344,7 +15349,7 @@
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H29" s="50">
@@ -15404,7 +15409,7 @@
     </row>
     <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -15419,14 +15424,14 @@
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H30" s="50">
         <v>2</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J30" s="59">
         <v>0</v>
@@ -15479,7 +15484,7 @@
     </row>
     <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B31" s="47" t="s">
@@ -15494,7 +15499,7 @@
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H31" s="50">
@@ -15554,7 +15559,7 @@
     </row>
     <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B32" s="47" t="s">
@@ -15569,7 +15574,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
       <c r="G32" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H32" s="50">
@@ -15629,7 +15634,7 @@
     </row>
     <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B33" s="47" t="s">
@@ -15644,7 +15649,7 @@
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H33" s="50">
@@ -15704,7 +15709,7 @@
     </row>
     <row r="34" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B34" s="47" t="s">
@@ -15719,7 +15724,7 @@
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H34" s="50">
@@ -15779,7 +15784,7 @@
     </row>
     <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B35" s="47" t="s">
@@ -15794,14 +15799,14 @@
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
       <c r="G35" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H35" s="50">
         <v>2</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J35" s="59">
         <v>0</v>
@@ -15854,7 +15859,7 @@
     </row>
     <row r="36" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B36" s="47" t="s">
@@ -15869,7 +15874,7 @@
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
       <c r="G36" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H36" s="50">
@@ -15929,7 +15934,7 @@
     </row>
     <row r="37" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B37" s="47" t="s">
@@ -15944,7 +15949,7 @@
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
       <c r="G37" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H37" s="50">
@@ -16004,7 +16009,7 @@
     </row>
     <row r="38" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B38" s="47" t="s">
@@ -16019,7 +16024,7 @@
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
       <c r="G38" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H38" s="50">
@@ -16079,7 +16084,7 @@
     </row>
     <row r="39" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" ref="A39:A71" si="2">"aaf_2014_ljucph"</f>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B39" s="47" t="s">
@@ -16089,18 +16094,18 @@
         <v>56</v>
       </c>
       <c r="D39" s="85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E39" s="49"/>
       <c r="F39" s="49"/>
       <c r="G39" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H39" s="50">
         <v>2</v>
       </c>
       <c r="I39" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J39" s="59">
         <v>0</v>
@@ -16153,7 +16158,7 @@
     </row>
     <row r="40" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B40" s="47" t="s">
@@ -16163,18 +16168,18 @@
         <v>56</v>
       </c>
       <c r="D40" s="85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E40" s="49"/>
       <c r="F40" s="49"/>
       <c r="G40" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H40" s="50">
         <v>2</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J40" s="59">
         <v>0</v>
@@ -16227,7 +16232,7 @@
     </row>
     <row r="41" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B41" s="47" t="s">
@@ -16237,18 +16242,18 @@
         <v>56</v>
       </c>
       <c r="D41" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
       <c r="G41" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H41" s="50">
         <v>2</v>
       </c>
       <c r="I41" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J41" s="59">
         <v>0</v>
@@ -16301,7 +16306,7 @@
     </row>
     <row r="42" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B42" s="47" t="s">
@@ -16311,18 +16316,18 @@
         <v>56</v>
       </c>
       <c r="D42" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
       <c r="G42" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H42" s="50">
         <v>2</v>
       </c>
       <c r="I42" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J42" s="59">
         <v>0</v>
@@ -16375,7 +16380,7 @@
     </row>
     <row r="43" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B43" s="47" t="s">
@@ -16385,12 +16390,12 @@
         <v>56</v>
       </c>
       <c r="D43" s="85" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
       <c r="G43" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H43" s="50">
         <v>2</v>
@@ -16449,7 +16454,7 @@
     </row>
     <row r="44" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B44" s="47" t="s">
@@ -16459,12 +16464,12 @@
         <v>56</v>
       </c>
       <c r="D44" s="85" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
       <c r="G44" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H44" s="50">
         <v>2</v>
@@ -16523,7 +16528,7 @@
     </row>
     <row r="45" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B45" s="47" t="s">
@@ -16545,7 +16550,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J45" s="59">
         <v>0</v>
@@ -16598,7 +16603,7 @@
     </row>
     <row r="46" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B46" s="47" t="s">
@@ -16608,18 +16613,18 @@
         <v>66</v>
       </c>
       <c r="D46" s="85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E46" s="49"/>
       <c r="F46" s="49"/>
       <c r="G46" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H46" s="50">
         <v>2</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J46" s="59">
         <v>0</v>
@@ -16672,7 +16677,7 @@
     </row>
     <row r="47" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B47" s="47" t="s">
@@ -16682,18 +16687,18 @@
         <v>66</v>
       </c>
       <c r="D47" s="85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="49"/>
       <c r="G47" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H47" s="50">
         <v>2</v>
       </c>
       <c r="I47" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J47" s="59">
         <v>0</v>
@@ -16746,7 +16751,7 @@
     </row>
     <row r="48" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B48" s="47" t="s">
@@ -16821,7 +16826,7 @@
     </row>
     <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B49" s="47" t="s">
@@ -16843,7 +16848,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J49" s="59">
         <v>0</v>
@@ -16896,7 +16901,7 @@
     </row>
     <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B50" s="47" t="s">
@@ -16971,7 +16976,7 @@
     </row>
     <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="52" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B51" s="53" t="s">
@@ -16993,7 +16998,7 @@
         <v>2</v>
       </c>
       <c r="I51" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J51" s="60">
         <v>0.05</v>
@@ -17046,7 +17051,7 @@
     </row>
     <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="40" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B52" s="41" t="s">
@@ -17056,18 +17061,18 @@
         <v>75</v>
       </c>
       <c r="D52" s="89" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H52" s="31">
         <v>3.1</v>
       </c>
       <c r="I52" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J52" s="58">
         <v>0</v>
@@ -17120,7 +17125,7 @@
     </row>
     <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B53" s="47" t="s">
@@ -17130,18 +17135,18 @@
         <v>75</v>
       </c>
       <c r="D53" s="85" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H53" s="29">
         <v>3.1</v>
       </c>
       <c r="I53" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J53" s="59">
         <v>0</v>
@@ -17194,7 +17199,7 @@
     </row>
     <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B54" s="47" t="s">
@@ -17204,18 +17209,18 @@
         <v>75</v>
       </c>
       <c r="D54" s="85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
       <c r="G54" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H54" s="29">
         <v>3.2</v>
       </c>
       <c r="I54" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J54" s="59">
         <v>0</v>
@@ -17268,7 +17273,7 @@
     </row>
     <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B55" s="47" t="s">
@@ -17278,18 +17283,18 @@
         <v>75</v>
       </c>
       <c r="D55" s="85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
       <c r="G55" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H55" s="29">
         <v>3.2</v>
       </c>
       <c r="I55" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J55" s="59">
         <v>0</v>
@@ -17342,7 +17347,7 @@
     </row>
     <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B56" s="47" t="s">
@@ -17352,18 +17357,18 @@
         <v>75</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
       <c r="G56" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H56" s="29">
         <v>3.3</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J56" s="59">
         <v>0</v>
@@ -17416,7 +17421,7 @@
     </row>
     <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B57" s="47" t="s">
@@ -17426,18 +17431,18 @@
         <v>75</v>
       </c>
       <c r="D57" s="85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
       <c r="G57" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H57" s="29">
         <v>3.3</v>
       </c>
       <c r="I57" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J57" s="59">
         <v>0</v>
@@ -17490,7 +17495,7 @@
     </row>
     <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B58" s="47" t="s">
@@ -17500,18 +17505,18 @@
         <v>75</v>
       </c>
       <c r="D58" s="85" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
       <c r="G58" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H58" s="29">
         <v>3.3</v>
       </c>
       <c r="I58" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J58" s="59">
         <v>0</v>
@@ -17564,7 +17569,7 @@
     </row>
     <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B59" s="47" t="s">
@@ -17574,18 +17579,18 @@
         <v>75</v>
       </c>
       <c r="D59" s="85" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
       <c r="G59" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H59" s="29">
         <v>3.3</v>
       </c>
       <c r="I59" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J59" s="59">
         <v>0</v>
@@ -17638,7 +17643,7 @@
     </row>
     <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B60" s="47" t="s">
@@ -17648,18 +17653,18 @@
         <v>75</v>
       </c>
       <c r="D60" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
       <c r="G60" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H60" s="29">
         <v>3.3</v>
       </c>
       <c r="I60" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J60" s="59">
         <v>0</v>
@@ -17712,7 +17717,7 @@
     </row>
     <row r="61" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B61" s="47" t="s">
@@ -17722,18 +17727,18 @@
         <v>75</v>
       </c>
       <c r="D61" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="49"/>
       <c r="G61" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H61" s="29">
         <v>3.3</v>
       </c>
       <c r="I61" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J61" s="59">
         <v>0</v>
@@ -17786,7 +17791,7 @@
     </row>
     <row r="62" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B62" s="47" t="s">
@@ -17796,18 +17801,18 @@
         <v>75</v>
       </c>
       <c r="D62" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
       <c r="G62" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H62" s="29">
         <v>3.3</v>
       </c>
       <c r="I62" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J62" s="59">
         <v>0</v>
@@ -17860,7 +17865,7 @@
     </row>
     <row r="63" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B63" s="47" t="s">
@@ -17870,18 +17875,18 @@
         <v>75</v>
       </c>
       <c r="D63" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
       <c r="G63" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H63" s="29">
         <v>3.3</v>
       </c>
       <c r="I63" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J63" s="59">
         <v>0</v>
@@ -17934,28 +17939,28 @@
     </row>
     <row r="64" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B64" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" s="85" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
       <c r="G64" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H64" s="50">
         <v>4</v>
       </c>
       <c r="I64" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J64" s="59">
         <v>0</v>
@@ -18008,28 +18013,28 @@
     </row>
     <row r="65" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B65" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="85" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
       <c r="G65" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H65" s="50">
         <v>4</v>
       </c>
       <c r="I65" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J65" s="59">
         <v>0</v>
@@ -18082,28 +18087,28 @@
     </row>
     <row r="66" spans="1:25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B66" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" s="85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H66" s="50">
         <v>4</v>
       </c>
       <c r="I66" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J66" s="59">
         <v>0</v>
@@ -18156,28 +18161,28 @@
     </row>
     <row r="67" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B67" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D67" s="85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E67" s="49"/>
       <c r="F67" s="49"/>
       <c r="G67" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H67" s="50">
         <v>4</v>
       </c>
       <c r="I67" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J67" s="59">
         <v>0</v>
@@ -18230,28 +18235,28 @@
     </row>
     <row r="68" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="46" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B68" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" s="85" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E68" s="49"/>
       <c r="F68" s="49"/>
       <c r="G68" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H68" s="50">
         <v>4</v>
       </c>
       <c r="I68" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J68" s="59">
         <v>0</v>
@@ -18304,28 +18309,28 @@
     </row>
     <row r="69" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="52" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B69" s="53" t="s">
         <v>74</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" s="90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E69" s="55"/>
       <c r="F69" s="55"/>
       <c r="G69" s="55" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H69" s="56">
         <v>4</v>
       </c>
       <c r="I69" s="57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J69" s="60">
         <v>0</v>
@@ -18378,7 +18383,7 @@
     </row>
     <row r="70" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B70" s="47" t="s">
@@ -18388,7 +18393,7 @@
         <v>75</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -18400,7 +18405,7 @@
         <v>5</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
@@ -18421,7 +18426,7 @@
     </row>
     <row r="71" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="str">
-        <f>"aaf_2014_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2014_ljucph</v>
       </c>
       <c r="B71" s="47" t="s">
@@ -18431,7 +18436,7 @@
         <v>75</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -18443,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J71" s="37"/>
       <c r="K71" s="37"/>
@@ -21276,10 +21281,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21297,7 +21304,7 @@
   <sheetData>
     <row r="1" spans="1:25" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="7"/>
@@ -21353,7 +21360,7 @@
     </row>
     <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="7"/>
@@ -21383,48 +21390,48 @@
     <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I4" s="12"/>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>2</v>
@@ -21477,84 +21484,84 @@
     </row>
     <row r="6" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="D6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="F6" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="94" t="s">
-        <v>95</v>
-      </c>
       <c r="G6" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" ref="A7:A38" si="0">"aaf_2008_ljucph"</f>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B7" s="42" t="s">
@@ -21564,19 +21571,19 @@
         <v>4</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" ref="G7:G38" si="1">"all"</f>
         <v>all</v>
       </c>
       <c r="H7" s="61">
         <v>1</v>
       </c>
       <c r="I7" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="80">
         <v>0</v>
@@ -21629,7 +21636,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B8" s="47" t="s">
@@ -21639,19 +21646,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H8" s="50">
         <v>1</v>
       </c>
       <c r="I8" s="96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="81">
         <v>0</v>
@@ -21704,7 +21711,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -21714,19 +21721,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H9" s="29">
         <v>1</v>
       </c>
       <c r="I9" s="96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9" s="81">
         <v>0</v>
@@ -21779,7 +21786,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -21789,19 +21796,19 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H10" s="29">
         <v>1</v>
       </c>
       <c r="I10" s="96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J10" s="81">
         <v>0</v>
@@ -21854,7 +21861,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -21864,19 +21871,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H11" s="29">
         <v>1</v>
       </c>
       <c r="I11" s="96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J11" s="81">
         <v>0</v>
@@ -21929,7 +21936,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -21939,19 +21946,19 @@
         <v>4</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H12" s="29">
         <v>1</v>
       </c>
       <c r="I12" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J12" s="81">
         <v>0</v>
@@ -22004,7 +22011,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -22014,19 +22021,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H13" s="29">
         <v>1</v>
       </c>
       <c r="I13" s="96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J13" s="81">
         <v>0</v>
@@ -22079,7 +22086,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -22089,19 +22096,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H14" s="29">
         <v>1</v>
       </c>
       <c r="I14" s="96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J14" s="81">
         <v>0</v>
@@ -22154,7 +22161,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -22169,14 +22176,14 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H15" s="29">
         <v>1</v>
       </c>
       <c r="I15" s="96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J15" s="81">
         <v>0</v>
@@ -22229,7 +22236,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -22239,19 +22246,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H16" s="29">
         <v>1</v>
       </c>
       <c r="I16" s="96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J16" s="81">
         <v>0</v>
@@ -22304,7 +22311,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -22314,19 +22321,19 @@
         <v>4</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H17" s="29">
         <v>1</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J17" s="81">
         <v>0</v>
@@ -22379,7 +22386,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B18" s="47" t="s">
@@ -22389,19 +22396,19 @@
         <v>4</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H18" s="29">
         <v>1</v>
       </c>
       <c r="I18" s="96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J18" s="81">
         <v>0</v>
@@ -22454,7 +22461,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B19" s="53" t="s">
@@ -22464,19 +22471,19 @@
         <v>4</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H19" s="30">
         <v>1</v>
       </c>
       <c r="I19" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J19" s="82">
         <v>0</v>
@@ -22529,7 +22536,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="92" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B20" s="42" t="s">
@@ -22539,19 +22546,19 @@
         <v>40</v>
       </c>
       <c r="D20" s="86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H20" s="31">
         <v>2</v>
       </c>
       <c r="I20" s="95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="80">
         <v>0</v>
@@ -22604,7 +22611,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B21" s="64" t="s">
@@ -22614,19 +22621,19 @@
         <v>40</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H21" s="29">
         <v>2</v>
       </c>
       <c r="I21" s="96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J21" s="81">
         <v>0</v>
@@ -22679,7 +22686,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B22" s="64" t="s">
@@ -22689,19 +22696,19 @@
         <v>40</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H22" s="29">
         <v>2</v>
       </c>
       <c r="I22" s="96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J22" s="81">
         <v>0</v>
@@ -22754,7 +22761,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B23" s="64" t="s">
@@ -22764,19 +22771,19 @@
         <v>40</v>
       </c>
       <c r="D23" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H23" s="29">
         <v>2</v>
       </c>
       <c r="I23" s="96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" s="81">
         <v>0</v>
@@ -22829,7 +22836,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B24" s="64" t="s">
@@ -22839,19 +22846,19 @@
         <v>40</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H24" s="29">
         <v>2</v>
       </c>
       <c r="I24" s="96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J24" s="81">
         <v>0</v>
@@ -22904,7 +22911,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B25" s="64" t="s">
@@ -22914,19 +22921,19 @@
         <v>40</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H25" s="29">
         <v>2</v>
       </c>
       <c r="I25" s="96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J25" s="81">
         <v>0</v>
@@ -22979,7 +22986,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B26" s="64" t="s">
@@ -22989,19 +22996,19 @@
         <v>40</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H26" s="29">
         <v>2</v>
       </c>
       <c r="I26" s="96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J26" s="81">
         <v>0</v>
@@ -23054,7 +23061,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -23064,19 +23071,19 @@
         <v>54</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H27" s="29">
         <v>2</v>
       </c>
       <c r="I27" s="96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J27" s="81">
         <v>0</v>
@@ -23129,7 +23136,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B28" s="64" t="s">
@@ -23139,19 +23146,19 @@
         <v>56</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H28" s="29">
         <v>2</v>
       </c>
       <c r="I28" s="96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J28" s="81">
         <v>0</v>
@@ -23204,7 +23211,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B29" s="64" t="s">
@@ -23214,19 +23221,19 @@
         <v>56</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H29" s="29">
         <v>2</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J29" s="81">
         <v>0</v>
@@ -23279,7 +23286,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B30" s="64" t="s">
@@ -23289,19 +23296,19 @@
         <v>56</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H30" s="29">
         <v>2</v>
       </c>
       <c r="I30" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J30" s="81">
         <v>0</v>
@@ -23354,7 +23361,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B31" s="64" t="s">
@@ -23364,19 +23371,19 @@
         <v>56</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H31" s="29">
         <v>2</v>
       </c>
       <c r="I31" s="96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J31" s="81">
         <v>0</v>
@@ -23429,7 +23436,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B32" s="64" t="s">
@@ -23439,19 +23446,19 @@
         <v>56</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H32" s="29">
         <v>2</v>
       </c>
       <c r="I32" s="96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J32" s="81">
         <v>0</v>
@@ -23504,7 +23511,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B33" s="64" t="s">
@@ -23514,19 +23521,19 @@
         <v>56</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H33" s="29">
         <v>2</v>
       </c>
       <c r="I33" s="96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J33" s="81">
         <v>0</v>
@@ -23579,7 +23586,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B34" s="64" t="s">
@@ -23589,19 +23596,19 @@
         <v>66</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H34" s="29">
         <v>2</v>
       </c>
       <c r="I34" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J34" s="81">
         <v>0</v>
@@ -23654,7 +23661,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -23664,19 +23671,19 @@
         <v>66</v>
       </c>
       <c r="D35" s="88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H35" s="29">
         <v>2</v>
       </c>
       <c r="I35" s="96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J35" s="81">
         <v>0</v>
@@ -23729,7 +23736,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B36" s="64" t="s">
@@ -23739,19 +23746,19 @@
         <v>66</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H36" s="29">
         <v>2</v>
       </c>
       <c r="I36" s="96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J36" s="81">
         <v>0</v>
@@ -23804,29 +23811,29 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H37" s="29">
         <v>2</v>
       </c>
       <c r="I37" s="96" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J37" s="81">
         <v>0</v>
@@ -23879,7 +23886,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B38" s="67" t="s">
@@ -23889,19 +23896,19 @@
         <v>70</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H38" s="30">
         <v>2</v>
       </c>
       <c r="I38" s="97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J38" s="82">
         <v>0</v>
@@ -23954,7 +23961,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="92" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" ref="A39:A58" si="2">"aaf_2008_ljucph"</f>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B39" s="70" t="s">
@@ -23964,18 +23971,18 @@
         <v>75</v>
       </c>
       <c r="D39" s="86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H39" s="31">
         <v>3.1</v>
       </c>
       <c r="I39" s="101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J39" s="80">
         <v>0</v>
@@ -24028,7 +24035,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B40" s="47" t="s">
@@ -24038,18 +24045,18 @@
         <v>75</v>
       </c>
       <c r="D40" s="88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H40" s="29">
         <v>3.1</v>
       </c>
       <c r="I40" s="100" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J40" s="81">
         <v>0</v>
@@ -24102,7 +24109,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B41" s="47" t="s">
@@ -24112,18 +24119,18 @@
         <v>75</v>
       </c>
       <c r="D41" s="88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H41" s="29">
         <v>3.2</v>
       </c>
       <c r="I41" s="100" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J41" s="81">
         <v>0</v>
@@ -24176,7 +24183,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B42" s="47" t="s">
@@ -24186,18 +24193,18 @@
         <v>75</v>
       </c>
       <c r="D42" s="88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H42" s="29">
         <v>3.2</v>
       </c>
       <c r="I42" s="100" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J42" s="81">
         <v>0</v>
@@ -24250,7 +24257,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B43" s="47" t="s">
@@ -24260,19 +24267,19 @@
         <v>75</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" ref="G43:G58" si="3">"all"</f>
         <v>all</v>
       </c>
       <c r="H43" s="29">
         <v>3.3</v>
       </c>
       <c r="I43" s="96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J43" s="81">
         <v>0</v>
@@ -24325,7 +24332,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B44" s="47" t="s">
@@ -24335,19 +24342,19 @@
         <v>75</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H44" s="29">
         <v>3.3</v>
       </c>
       <c r="I44" s="96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J44" s="81">
         <v>0</v>
@@ -24400,7 +24407,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B45" s="47" t="s">
@@ -24410,19 +24417,19 @@
         <v>75</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H45" s="29">
         <v>3.3</v>
       </c>
       <c r="I45" s="96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J45" s="81">
         <v>0</v>
@@ -24475,7 +24482,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B46" s="47" t="s">
@@ -24485,19 +24492,19 @@
         <v>75</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H46" s="29">
         <v>3.3</v>
       </c>
       <c r="I46" s="96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J46" s="81">
         <v>0</v>
@@ -24550,7 +24557,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B47" s="47" t="s">
@@ -24560,19 +24567,19 @@
         <v>75</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H47" s="29">
         <v>3.3</v>
       </c>
       <c r="I47" s="96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J47" s="81">
         <v>0</v>
@@ -24625,7 +24632,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B48" s="47" t="s">
@@ -24635,19 +24642,19 @@
         <v>75</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H48" s="29">
         <v>3.3</v>
       </c>
       <c r="I48" s="96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J48" s="81">
         <v>0</v>
@@ -24700,7 +24707,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B49" s="47" t="s">
@@ -24710,19 +24717,19 @@
         <v>75</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H49" s="29">
         <v>3.3</v>
       </c>
       <c r="I49" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J49" s="81">
         <v>0</v>
@@ -24775,7 +24782,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B50" s="47" t="s">
@@ -24785,19 +24792,19 @@
         <v>75</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
       <c r="G50" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H50" s="29">
         <v>3.3</v>
       </c>
       <c r="I50" s="96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J50" s="81">
         <v>0</v>
@@ -24850,7 +24857,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B51" s="47" t="s">
@@ -24860,19 +24867,19 @@
         <v>75</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H51" s="29">
         <v>3.3</v>
       </c>
       <c r="I51" s="96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J51" s="81">
         <v>0</v>
@@ -24925,29 +24932,29 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B52" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H52" s="29">
         <v>4</v>
       </c>
       <c r="I52" s="96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J52" s="81">
         <v>0</v>
@@ -25000,29 +25007,29 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="38" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B53" s="53" t="s">
         <v>74</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H53" s="30">
         <v>4</v>
       </c>
       <c r="I53" s="97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J53" s="82">
         <v>0</v>
@@ -25075,7 +25082,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="92" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B54" s="74" t="s">
@@ -25090,14 +25097,14 @@
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H54" s="31">
         <v>5.0999999999999996</v>
       </c>
       <c r="I54" s="95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J54" s="80">
         <v>0</v>
@@ -25150,7 +25157,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="91" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B55" s="64" t="s">
@@ -25160,19 +25167,19 @@
         <v>56</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H55" s="29">
         <v>5.0999999999999996</v>
       </c>
       <c r="I55" s="96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J55" s="81">
         <v>0</v>
@@ -25225,7 +25232,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="38" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B56" s="67" t="s">
@@ -25240,14 +25247,14 @@
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H56" s="30">
         <v>5.0999999999999996</v>
       </c>
       <c r="I56" s="97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J56" s="82">
         <v>0</v>
@@ -25300,7 +25307,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="93" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B57" s="47" t="s">
@@ -25309,20 +25316,20 @@
       <c r="C57" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="71" t="s">
-        <v>249</v>
+      <c r="D57" s="27" t="s">
+        <v>283</v>
       </c>
       <c r="E57" s="71"/>
       <c r="F57" s="71"/>
       <c r="G57" s="71" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H57" s="72">
         <v>5.2</v>
       </c>
       <c r="I57" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J57" s="73"/>
       <c r="K57" s="73"/>
@@ -25343,7 +25350,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="93" t="str">
-        <f>"aaf_2008_ljucph"</f>
+        <f t="shared" si="2"/>
         <v>aaf_2008_ljucph</v>
       </c>
       <c r="B58" s="47" t="s">
@@ -25352,20 +25359,20 @@
       <c r="C58" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>76</v>
+      <c r="D58" s="27" t="s">
+        <v>282</v>
       </c>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
       <c r="G58" s="26" t="str">
-        <f>"all"</f>
+        <f t="shared" si="3"/>
         <v>all</v>
       </c>
       <c r="H58" s="32">
         <v>5.2</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J58" s="39"/>
       <c r="K58" s="39"/>
@@ -25428,10 +25435,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25449,7 +25456,7 @@
   <sheetData>
     <row r="1" spans="1:25" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="7"/>
@@ -25505,7 +25512,7 @@
     </row>
     <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="7"/>
@@ -25535,48 +25542,48 @@
     <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I4" s="12"/>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D5" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>2</v>
@@ -25629,84 +25636,84 @@
     </row>
     <row r="6" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="D6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="F6" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="94" t="s">
-        <v>95</v>
-      </c>
       <c r="G6" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" ref="A7:A45" si="0">"aaf_2007_ni39"</f>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B7" s="42" t="s">
@@ -25716,19 +25723,19 @@
         <v>4</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="49" t="str">
-        <f>"all"</f>
+        <f t="shared" ref="G7:G45" si="1">"all"</f>
         <v>all</v>
       </c>
       <c r="H7" s="61">
         <v>1</v>
       </c>
       <c r="I7" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="23">
         <v>1</v>
@@ -25781,7 +25788,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B8" s="47" t="s">
@@ -25791,19 +25798,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H8" s="50">
         <v>1</v>
       </c>
       <c r="I8" s="96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="24">
         <v>1</v>
@@ -25856,7 +25863,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -25866,19 +25873,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H9" s="29">
         <v>1</v>
       </c>
       <c r="I9" s="96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9" s="24">
         <v>1</v>
@@ -25931,7 +25938,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -25941,19 +25948,19 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H10" s="29">
         <v>1</v>
       </c>
       <c r="I10" s="96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J10" s="24">
         <v>1</v>
@@ -26006,7 +26013,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -26016,19 +26023,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H11" s="29">
         <v>1</v>
       </c>
       <c r="I11" s="96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J11" s="24">
         <v>1</v>
@@ -26081,7 +26088,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -26091,19 +26098,19 @@
         <v>4</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H12" s="29">
         <v>1</v>
       </c>
       <c r="I12" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J12" s="24">
         <v>1</v>
@@ -26156,7 +26163,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -26166,19 +26173,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H13" s="29">
         <v>1</v>
       </c>
       <c r="I13" s="96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J13" s="24">
         <v>1</v>
@@ -26231,7 +26238,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -26246,14 +26253,14 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H14" s="29">
         <v>1</v>
       </c>
       <c r="I14" s="96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J14" s="24">
         <v>1</v>
@@ -26306,7 +26313,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -26316,19 +26323,19 @@
         <v>4</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H15" s="29">
         <v>1</v>
       </c>
       <c r="I15" s="96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J15" s="24">
         <v>1</v>
@@ -26381,7 +26388,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -26391,19 +26398,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H16" s="29">
         <v>1</v>
       </c>
       <c r="I16" s="96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J16" s="24">
         <v>1</v>
@@ -26456,7 +26463,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -26466,19 +26473,19 @@
         <v>4</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H17" s="29">
         <v>1</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" s="24">
         <v>1</v>
@@ -26531,7 +26538,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B18" s="53" t="s">
@@ -26541,19 +26548,19 @@
         <v>4</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H18" s="30">
         <v>1</v>
       </c>
       <c r="I18" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J18" s="25">
         <v>1</v>
@@ -26606,7 +26613,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="92" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B19" s="42" t="s">
@@ -26621,14 +26628,14 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H19" s="31">
         <v>2</v>
       </c>
       <c r="I19" s="95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J19" s="23">
         <v>0</v>
@@ -26681,7 +26688,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -26691,19 +26698,19 @@
         <v>40</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H20" s="29">
         <v>2</v>
       </c>
       <c r="I20" s="96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J20" s="24">
         <v>0</v>
@@ -26756,7 +26763,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -26766,19 +26773,19 @@
         <v>40</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H21" s="29">
         <v>2</v>
       </c>
       <c r="I21" s="96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J21" s="24">
         <v>0</v>
@@ -26831,7 +26838,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B22" s="47" t="s">
@@ -26841,19 +26848,19 @@
         <v>40</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H22" s="29">
         <v>2</v>
       </c>
       <c r="I22" s="96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J22" s="24">
         <v>0</v>
@@ -26906,7 +26913,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B23" s="47" t="s">
@@ -26916,19 +26923,19 @@
         <v>54</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H23" s="29">
         <v>2</v>
       </c>
       <c r="I23" s="96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J23" s="24">
         <v>0</v>
@@ -26981,7 +26988,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B24" s="47" t="s">
@@ -26991,19 +26998,19 @@
         <v>56</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H24" s="29">
         <v>2</v>
       </c>
       <c r="I24" s="96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J24" s="24">
         <v>0</v>
@@ -27056,7 +27063,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B25" s="47" t="s">
@@ -27066,19 +27073,19 @@
         <v>56</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H25" s="29">
         <v>2</v>
       </c>
       <c r="I25" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J25" s="24">
         <v>0</v>
@@ -27131,7 +27138,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B26" s="47" t="s">
@@ -27141,19 +27148,19 @@
         <v>56</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H26" s="29">
         <v>2</v>
       </c>
       <c r="I26" s="96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J26" s="24">
         <v>0</v>
@@ -27206,7 +27213,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -27216,19 +27223,19 @@
         <v>56</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H27" s="29">
         <v>2</v>
       </c>
       <c r="I27" s="96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J27" s="24">
         <v>0</v>
@@ -27281,7 +27288,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B28" s="47" t="s">
@@ -27291,19 +27298,19 @@
         <v>66</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H28" s="29">
         <v>2</v>
       </c>
       <c r="I28" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J28" s="24">
         <v>0</v>
@@ -27356,7 +27363,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B29" s="47" t="s">
@@ -27366,19 +27373,19 @@
         <v>66</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H29" s="29">
         <v>2</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J29" s="24">
         <v>0</v>
@@ -27431,7 +27438,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -27441,19 +27448,19 @@
         <v>66</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H30" s="29">
         <v>2</v>
       </c>
       <c r="I30" s="96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J30" s="24">
         <v>0</v>
@@ -27506,29 +27513,29 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B31" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H31" s="29">
         <v>2</v>
       </c>
       <c r="I31" s="96" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J31" s="24">
         <v>0</v>
@@ -27581,7 +27588,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B32" s="53" t="s">
@@ -27591,19 +27598,19 @@
         <v>70</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H32" s="30">
         <v>2</v>
       </c>
       <c r="I32" s="97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J32" s="25">
         <v>0</v>
@@ -27656,7 +27663,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="92" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B33" s="42" t="s">
@@ -27666,19 +27673,19 @@
         <v>75</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H33" s="31">
         <v>3.1</v>
       </c>
       <c r="I33" s="102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J33" s="23">
         <v>0</v>
@@ -27731,7 +27738,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B34" s="47" t="s">
@@ -27741,19 +27748,19 @@
         <v>75</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H34" s="29">
         <v>3.2</v>
       </c>
       <c r="I34" s="103" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J34" s="24">
         <v>0</v>
@@ -27806,7 +27813,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B35" s="47" t="s">
@@ -27816,19 +27823,19 @@
         <v>75</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H35" s="29">
         <v>3.3</v>
       </c>
       <c r="I35" s="96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J35" s="24">
         <v>0</v>
@@ -27881,7 +27888,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B36" s="47" t="s">
@@ -27891,19 +27898,19 @@
         <v>75</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H36" s="29">
         <v>3.3</v>
       </c>
       <c r="I36" s="96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J36" s="24">
         <v>0</v>
@@ -27956,7 +27963,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B37" s="47" t="s">
@@ -27966,19 +27973,19 @@
         <v>75</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H37" s="29">
         <v>3.3</v>
       </c>
       <c r="I37" s="96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J37" s="24">
         <v>0</v>
@@ -28031,7 +28038,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B38" s="47" t="s">
@@ -28041,19 +28048,19 @@
         <v>75</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H38" s="29">
         <v>3.3</v>
       </c>
       <c r="I38" s="96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J38" s="24">
         <v>0</v>
@@ -28106,7 +28113,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B39" s="47" t="s">
@@ -28116,19 +28123,19 @@
         <v>75</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H39" s="29">
         <v>3.3</v>
       </c>
       <c r="I39" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J39" s="24">
         <v>0</v>
@@ -28181,7 +28188,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B40" s="47" t="s">
@@ -28191,19 +28198,19 @@
         <v>75</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H40" s="29">
         <v>3.3</v>
       </c>
       <c r="I40" s="96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J40" s="24">
         <v>0</v>
@@ -28256,7 +28263,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B41" s="47" t="s">
@@ -28266,19 +28273,19 @@
         <v>75</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H41" s="29">
         <v>3.3</v>
       </c>
       <c r="I41" s="96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J41" s="24">
         <v>0</v>
@@ -28331,29 +28338,29 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="91" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B42" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H42" s="29">
         <v>4</v>
       </c>
       <c r="I42" s="96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J42" s="24">
         <v>0</v>
@@ -28406,29 +28413,29 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B43" s="53" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H43" s="30">
         <v>4</v>
       </c>
       <c r="I43" s="97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J43" s="25">
         <v>0</v>
@@ -28481,7 +28488,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="92" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B44" s="70" t="s">
@@ -28490,20 +28497,20 @@
       <c r="C44" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>249</v>
+      <c r="D44" s="27" t="s">
+        <v>283</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H44" s="31">
         <v>5</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J44" s="83"/>
       <c r="K44" s="83"/>
@@ -28524,7 +28531,7 @@
     </row>
     <row r="45" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="str">
-        <f>"aaf_2007_ni39"</f>
+        <f t="shared" si="0"/>
         <v>aaf_2007_ni39</v>
       </c>
       <c r="B45" s="53" t="s">
@@ -28533,20 +28540,20 @@
       <c r="C45" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="78" t="s">
-        <v>76</v>
+      <c r="D45" s="27" t="s">
+        <v>282</v>
       </c>
       <c r="E45" s="78"/>
       <c r="F45" s="78"/>
       <c r="G45" s="78" t="str">
-        <f>"all"</f>
+        <f t="shared" si="1"/>
         <v>all</v>
       </c>
       <c r="H45" s="30">
         <v>5</v>
       </c>
       <c r="I45" s="78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J45" s="84"/>
       <c r="K45" s="84"/>
